--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efna5</t>
   </si>
   <si>
@@ -88,7 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.97793667853582</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H2">
-        <v>1.97793667853582</v>
+        <v>6.090071</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8776223887075381</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8776223887075382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.21196086498183</v>
+        <v>6.588395333333334</v>
       </c>
       <c r="N2">
-        <v>6.21196086498183</v>
+        <v>19.765186</v>
       </c>
       <c r="O2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877385</v>
       </c>
       <c r="P2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877386</v>
       </c>
       <c r="Q2">
-        <v>12.28686524047666</v>
+        <v>13.37459845202289</v>
       </c>
       <c r="R2">
-        <v>12.28686524047666</v>
+        <v>120.371386068206</v>
       </c>
       <c r="S2">
-        <v>0.6316984926982493</v>
+        <v>0.5343783221934635</v>
       </c>
       <c r="T2">
-        <v>0.6316984926982493</v>
+        <v>0.5343783221934637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.97793667853582</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H3">
-        <v>1.97793667853582</v>
+        <v>6.090071</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8776223887075381</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8776223887075382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30448680721225</v>
+        <v>2.450022</v>
       </c>
       <c r="N3">
-        <v>2.30448680721225</v>
+        <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="P3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="Q3">
-        <v>4.558128981187014</v>
+        <v>4.973602643854</v>
       </c>
       <c r="R3">
-        <v>4.558128981187014</v>
+        <v>44.762423794686</v>
       </c>
       <c r="S3">
-        <v>0.2343448186812165</v>
+        <v>0.1987188957944146</v>
       </c>
       <c r="T3">
-        <v>0.2343448186812165</v>
+        <v>0.1987188957944146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H4">
+        <v>6.090071</v>
+      </c>
+      <c r="I4">
+        <v>0.8776223887075381</v>
+      </c>
+      <c r="J4">
+        <v>0.8776223887075382</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.080383</v>
+      </c>
+      <c r="O4">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P4">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q4">
+        <v>0.05439313079922222</v>
+      </c>
+      <c r="R4">
+        <v>0.489538177193</v>
+      </c>
+      <c r="S4">
+        <v>0.002173262253786894</v>
+      </c>
+      <c r="T4">
+        <v>0.002173262253786895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H5">
+        <v>6.090071</v>
+      </c>
+      <c r="I5">
+        <v>0.8776223887075381</v>
+      </c>
+      <c r="J5">
+        <v>0.8776223887075382</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.002428</v>
+      </c>
+      <c r="N5">
+        <v>0.007284</v>
+      </c>
+      <c r="O5">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P5">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q5">
+        <v>0.004928897462666667</v>
+      </c>
+      <c r="R5">
+        <v>0.044360077164</v>
+      </c>
+      <c r="S5">
+        <v>0.0001969327128445535</v>
+      </c>
+      <c r="T5">
+        <v>0.0001969327128445535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.090071</v>
+      </c>
+      <c r="I6">
+        <v>0.8776223887075381</v>
+      </c>
+      <c r="J6">
+        <v>0.8776223887075382</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.139771</v>
+      </c>
+      <c r="O6">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P6">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q6">
+        <v>0.09457947930455557</v>
+      </c>
+      <c r="R6">
+        <v>0.851215313741</v>
+      </c>
+      <c r="S6">
+        <v>0.00377889651386547</v>
+      </c>
+      <c r="T6">
+        <v>0.003778896513865471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.090071</v>
+      </c>
+      <c r="I7">
+        <v>0.8776223887075381</v>
+      </c>
+      <c r="J7">
+        <v>0.8776223887075382</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.118151</v>
+      </c>
+      <c r="O7">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P7">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q7">
+        <v>3.463322553191222</v>
+      </c>
+      <c r="R7">
+        <v>31.169902978721</v>
+      </c>
+      <c r="S7">
+        <v>0.1383760792391631</v>
+      </c>
+      <c r="T7">
+        <v>0.1383760792391631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.97793667853582</v>
-      </c>
-      <c r="H4">
-        <v>1.97793667853582</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.31729569871051</v>
-      </c>
-      <c r="N4">
-        <v>1.31729569871051</v>
-      </c>
-      <c r="O4">
-        <v>0.1339566886205344</v>
-      </c>
-      <c r="P4">
-        <v>0.1339566886205344</v>
-      </c>
-      <c r="Q4">
-        <v>2.605527478956988</v>
-      </c>
-      <c r="R4">
-        <v>2.605527478956988</v>
-      </c>
-      <c r="S4">
-        <v>0.1339566886205344</v>
-      </c>
-      <c r="T4">
-        <v>0.1339566886205344</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.283071</v>
+      </c>
+      <c r="H8">
+        <v>0.849213</v>
+      </c>
+      <c r="I8">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J8">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.588395333333334</v>
+      </c>
+      <c r="N8">
+        <v>19.765186</v>
+      </c>
+      <c r="O8">
+        <v>0.6088932199877385</v>
+      </c>
+      <c r="P8">
+        <v>0.6088932199877386</v>
+      </c>
+      <c r="Q8">
+        <v>1.864983655402</v>
+      </c>
+      <c r="R8">
+        <v>16.784852898618</v>
+      </c>
+      <c r="S8">
+        <v>0.07451489779427493</v>
+      </c>
+      <c r="T8">
+        <v>0.07451489779427495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.283071</v>
+      </c>
+      <c r="H9">
+        <v>0.849213</v>
+      </c>
+      <c r="I9">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J9">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.450022</v>
+      </c>
+      <c r="N9">
+        <v>7.350066</v>
+      </c>
+      <c r="O9">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="P9">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="Q9">
+        <v>0.6935301775620001</v>
+      </c>
+      <c r="R9">
+        <v>6.241771598058</v>
+      </c>
+      <c r="S9">
+        <v>0.02770980332647389</v>
+      </c>
+      <c r="T9">
+        <v>0.0277098033264739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.283071</v>
+      </c>
+      <c r="H10">
+        <v>0.849213</v>
+      </c>
+      <c r="I10">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J10">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.080383</v>
+      </c>
+      <c r="O10">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P10">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q10">
+        <v>0.007584698731</v>
+      </c>
+      <c r="R10">
+        <v>0.06826228857899999</v>
+      </c>
+      <c r="S10">
+        <v>0.0003030445061026596</v>
+      </c>
+      <c r="T10">
+        <v>0.0003030445061026597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.283071</v>
+      </c>
+      <c r="H11">
+        <v>0.849213</v>
+      </c>
+      <c r="I11">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J11">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002428</v>
+      </c>
+      <c r="N11">
+        <v>0.007284</v>
+      </c>
+      <c r="O11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006872963880000001</v>
+      </c>
+      <c r="R11">
+        <v>0.006185667491999999</v>
+      </c>
+      <c r="S11">
+        <v>2.746073401654296E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.746073401654296E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.283071</v>
+      </c>
+      <c r="H12">
+        <v>0.849213</v>
+      </c>
+      <c r="I12">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J12">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.139771</v>
+      </c>
+      <c r="O12">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P12">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q12">
+        <v>0.013188372247</v>
+      </c>
+      <c r="R12">
+        <v>0.118695350223</v>
+      </c>
+      <c r="S12">
+        <v>0.000526937706511014</v>
+      </c>
+      <c r="T12">
+        <v>0.0005269377065110141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.283071</v>
+      </c>
+      <c r="H13">
+        <v>0.849213</v>
+      </c>
+      <c r="I13">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J13">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.118151</v>
+      </c>
+      <c r="O13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q13">
+        <v>0.4829333739070001</v>
+      </c>
+      <c r="R13">
+        <v>4.346400365163</v>
+      </c>
+      <c r="S13">
+        <v>0.01929546722508283</v>
+      </c>
+      <c r="T13">
+        <v>0.01929546722508283</v>
       </c>
     </row>
   </sheetData>
